--- a/lifetime_report.xlsx
+++ b/lifetime_report.xlsx
@@ -102,7 +102,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -535,2398 +538,2398 @@
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="7.14" customWidth="1" style="4" min="1" max="1"/>
-    <col width="20.57" customWidth="1" style="4" min="2" max="2"/>
-    <col width="10" customWidth="1" style="4" min="3" max="3"/>
-    <col width="12.85" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.45" customWidth="1" style="4" min="5" max="5"/>
-    <col width="9.140000000000001" customWidth="1" style="4" min="1015" max="1024"/>
+    <col width="7.14" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.57" customWidth="1" style="5" min="2" max="2"/>
+    <col width="10" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.85" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.45" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="1015" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Full Name</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Total Purcase</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Rewards</t>
         </is>
       </c>
-      <c r="AMA1" s="4" t="n"/>
-      <c r="AMB1" s="4" t="n"/>
-      <c r="AMC1" s="4" t="n"/>
-      <c r="AMD1" s="4" t="n"/>
-      <c r="AME1" s="4" t="n"/>
-      <c r="AMF1" s="4" t="n"/>
-      <c r="AMG1" s="4" t="n"/>
-      <c r="AMH1" s="4" t="n"/>
-      <c r="AMI1" s="4" t="n"/>
-      <c r="AMJ1" s="4" t="n"/>
-    </row>
-    <row r="2" ht="13.8" customHeight="1" s="8">
-      <c r="A2" s="4" t="n">
+      <c r="AMA1" s="5" t="n"/>
+      <c r="AMB1" s="5" t="n"/>
+      <c r="AMC1" s="5" t="n"/>
+      <c r="AMD1" s="5" t="n"/>
+      <c r="AME1" s="5" t="n"/>
+      <c r="AMF1" s="5" t="n"/>
+      <c r="AMG1" s="5" t="n"/>
+      <c r="AMH1" s="5" t="n"/>
+      <c r="AMI1" s="5" t="n"/>
+      <c r="AMJ1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="9">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>“Emily Davis@”</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="8">
-      <c r="A3" s="4" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="9">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Theodore Dinh</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>“Theodore Dinh@”</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="8">
-      <c r="A4" s="4" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="9">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Luna Sanders</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>“julia ann@”</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="8">
-      <c r="A5" s="4" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="9">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Penelope Jordan</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>“Penelope Jordan@”</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="8">
-      <c r="A6" s="4" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="9">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Austin Vo</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>“Austin Vo@”</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="8">
-      <c r="A7" s="4" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="9">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Joshua Gupta</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>“Joshua Gupta@”</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="8">
-      <c r="A8" s="4" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="9">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Ruby Barnes</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n">
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="8">
-      <c r="A9" s="4" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="9">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Luke Martin</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="8">
-      <c r="A10" s="4" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="9">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Easton Bailey</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="8">
-      <c r="A11" s="4" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="9">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Madeline Walker</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="n">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="8">
-      <c r="A12" s="4" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="9">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Savannah Ali</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="n">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="8">
-      <c r="A13" s="4" t="n">
+    <row r="13" ht="13.5" customHeight="1" s="9">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Camila Rogers</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="n">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="8">
-      <c r="A14" s="4" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="9">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Eli Jones</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="n">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="8">
-      <c r="A15" s="4" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="9">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Everleigh Ng</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="8">
-      <c r="A16" s="4" t="n">
+    <row r="16" ht="13.5" customHeight="1" s="9">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Robert Yang</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="8">
-      <c r="A17" s="4" t="n">
+    <row r="17" ht="13.5" customHeight="1" s="9">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Isabella Xi</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="n">
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="8">
-      <c r="A18" s="4" t="n">
+    <row r="18" ht="13.5" customHeight="1" s="9">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Bella Powell</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="8">
-      <c r="A19" s="4" t="n">
+    <row r="19" ht="13.5" customHeight="1" s="9">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Camila Silva</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="n">
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="8">
-      <c r="A20" s="4" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="9">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>David Barnes</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="8">
-      <c r="A21" s="4" t="n">
+    <row r="21" ht="13.5" customHeight="1" s="9">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Adam Dang</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="8">
-      <c r="A22" s="4" t="n">
+    <row r="22" ht="13.5" customHeight="1" s="9">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Elias Alvarado</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="8">
-      <c r="A23" s="4" t="n">
+    <row r="23" ht="13.5" customHeight="1" s="9">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Eva Rivera</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="n">
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="8">
-      <c r="A24" s="4" t="n">
+    <row r="24" ht="13.5" customHeight="1" s="9">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Logan Rivera</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="8">
-      <c r="A25" s="4" t="n">
+    <row r="25" ht="13.5" customHeight="1" s="9">
+      <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Leonardo Dixon</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="n">
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="8">
-      <c r="A26" s="4" t="n">
+    <row r="26" ht="13.5" customHeight="1" s="9">
+      <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Mateo Her</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="8">
-      <c r="A27" s="4" t="n">
+    <row r="27" ht="13.5" customHeight="1" s="9">
+      <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Jose Henderson</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="n">
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="8">
-      <c r="A28" s="4" t="n">
+    <row r="28" ht="13.5" customHeight="1" s="9">
+      <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Abigail Mejia</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="5" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="8">
-      <c r="A29" s="4" t="n">
+    <row r="29" ht="13.5" customHeight="1" s="9">
+      <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Wyatt Chin</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="n">
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="8">
-      <c r="A30" s="4" t="n">
+    <row r="30" ht="13.5" customHeight="1" s="9">
+      <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Carson Lu</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="8">
-      <c r="A31" s="4" t="n">
+    <row r="31" ht="13.5" customHeight="1" s="9">
+      <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Dylan Choi</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="5" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="8">
-      <c r="A32" s="4" t="n">
+    <row r="32" ht="13.5" customHeight="1" s="9">
+      <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Ezekiel Kumar</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="n">
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="5" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="8">
-      <c r="A33" s="4" t="n">
+    <row r="33" ht="13.5" customHeight="1" s="9">
+      <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Dominic Guzman</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="8">
-      <c r="A34" s="4" t="n">
+    <row r="34" ht="13.5" customHeight="1" s="9">
+      <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Angel Powell</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="n">
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="8">
-      <c r="A35" s="4" t="n">
+    <row r="35" ht="13.5" customHeight="1" s="9">
+      <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Mateo Vu</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="5" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="8">
-      <c r="A36" s="4" t="n">
+    <row r="36" ht="13.5" customHeight="1" s="9">
+      <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Caroline Jenkins</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="n">
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="5" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="8">
-      <c r="A37" s="4" t="n">
+    <row r="37" ht="13.5" customHeight="1" s="9">
+      <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Nora Brown</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="5" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="8">
-      <c r="A38" s="4" t="n">
+    <row r="38" ht="13.5" customHeight="1" s="9">
+      <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Adeline Huang</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="5" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="8">
-      <c r="A39" s="4" t="n">
+    <row r="39" ht="13.5" customHeight="1" s="9">
+      <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Jackson Perry</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="5" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="8">
-      <c r="A40" s="4" t="n">
+    <row r="40" ht="13.5" customHeight="1" s="9">
+      <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>Riley Padilla</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="5" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="8">
-      <c r="A41" s="4" t="n">
+    <row r="41" ht="13.5" customHeight="1" s="9">
+      <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Leah Pena</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="5" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="8">
-      <c r="A42" s="4" t="n">
+    <row r="42" ht="13.5" customHeight="1" s="9">
+      <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>Owen Lam</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="5" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="8">
-      <c r="A43" s="4" t="n">
+    <row r="43" ht="13.5" customHeight="1" s="9">
+      <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Kennedy Foster</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="n">
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="5" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="8">
-      <c r="A44" s="4" t="n">
+    <row r="44" ht="13.5" customHeight="1" s="9">
+      <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>John Moore</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="n">
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="5" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="8">
-      <c r="A45" s="4" t="n">
+    <row r="45" ht="13.5" customHeight="1" s="9">
+      <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>William Vu</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="5" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="8">
-      <c r="A46" s="4" t="n">
+    <row r="46" ht="13.5" customHeight="1" s="9">
+      <c r="A46" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>Sadie Washington</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="n">
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="5" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="8">
-      <c r="A47" s="4" t="n">
+    <row r="47" ht="13.5" customHeight="1" s="9">
+      <c r="A47" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Gabriel Holmes</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n">
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="5" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="8">
-      <c r="A48" s="4" t="n">
+    <row r="48" ht="13.5" customHeight="1" s="9">
+      <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>Wyatt Rojas</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="n">
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" s="5" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="8">
-      <c r="A49" s="4" t="n">
+    <row r="49" ht="13.5" customHeight="1" s="9">
+      <c r="A49" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Eva Coleman</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="n">
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F49" s="4" t="n">
+      <c r="F49" s="5" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="8">
-      <c r="A50" s="4" t="n">
+    <row r="50" ht="13.5" customHeight="1" s="9">
+      <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>Dominic Clark</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="n">
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" s="5" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="8">
-      <c r="A51" s="4" t="n">
+    <row r="51" ht="13.5" customHeight="1" s="9">
+      <c r="A51" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Lucy Alexander</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="n">
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="5" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="8">
-      <c r="A52" s="4" t="n">
+    <row r="52" ht="13.5" customHeight="1" s="9">
+      <c r="A52" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>Everleigh Washington</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="n">
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" s="5" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="8">
-      <c r="A53" s="4" t="n">
+    <row r="53" ht="13.5" customHeight="1" s="9">
+      <c r="A53" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Leilani Butler</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="n">
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="F53" s="5" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="8">
-      <c r="A54" s="4" t="n">
+    <row r="54" ht="13.5" customHeight="1" s="9">
+      <c r="A54" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>Peyton Huang</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="F54" s="5" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="8">
-      <c r="A55" s="4" t="n">
+    <row r="55" ht="13.5" customHeight="1" s="9">
+      <c r="A55" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>John Contreras</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="n">
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="F55" s="5" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="8">
-      <c r="A56" s="4" t="n">
+    <row r="56" ht="13.5" customHeight="1" s="9">
+      <c r="A56" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>Rylee Yu</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="n">
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="5" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="8">
-      <c r="A57" s="4" t="n">
+    <row r="57" ht="13.5" customHeight="1" s="9">
+      <c r="A57" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Piper Lewis</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="n">
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="F57" s="5" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="8">
-      <c r="A58" s="4" t="n">
+    <row r="58" ht="13.5" customHeight="1" s="9">
+      <c r="A58" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>Stella Alexander</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="n">
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" s="5" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="8">
-      <c r="A59" s="4" t="n">
+    <row r="59" ht="13.5" customHeight="1" s="9">
+      <c r="A59" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Addison Do</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E59" s="4" t="n">
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="F59" s="5" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="8">
-      <c r="A60" s="4" t="n">
+    <row r="60" ht="13.5" customHeight="1" s="9">
+      <c r="A60" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>Zoey Jackson</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="n">
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" s="5" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="8">
-      <c r="A61" s="4" t="n">
+    <row r="61" ht="13.5" customHeight="1" s="9">
+      <c r="A61" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>John Chow</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="5" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="8">
-      <c r="A62" s="4" t="n">
+    <row r="62" ht="13.5" customHeight="1" s="9">
+      <c r="A62" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>Ava Ayala</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="F62" s="5" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="8">
-      <c r="A63" s="4" t="n">
+    <row r="63" ht="13.5" customHeight="1" s="9">
+      <c r="A63" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>Natalia Salazar</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E63" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F63" s="5" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="8">
-      <c r="A64" s="4" t="n">
+    <row r="64" ht="13.5" customHeight="1" s="9">
+      <c r="A64" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>Skylar Carrillo</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="n">
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F64" s="5" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="8">
-      <c r="A65" s="4" t="n">
+    <row r="65" ht="13.5" customHeight="1" s="9">
+      <c r="A65" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>Christian Sanders</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E65" s="4" t="n">
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F65" s="5" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="8">
-      <c r="A66" s="4" t="n">
+    <row r="66" ht="13.5" customHeight="1" s="9">
+      <c r="A66" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>Penelope Coleman</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E66" s="4" t="n">
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="5" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="8">
-      <c r="A67" s="4" t="n">
+    <row r="67" ht="13.5" customHeight="1" s="9">
+      <c r="A67" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>Piper Richardson</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D67" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E67" s="4" t="n">
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="F67" s="4" t="n">
+      <c r="F67" s="5" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="8">
-      <c r="A68" s="4" t="n">
+    <row r="68" ht="13.5" customHeight="1" s="9">
+      <c r="A68" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>Everly Walker</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E68" s="4" t="n">
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="F68" s="4" t="n">
+      <c r="F68" s="5" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="8">
-      <c r="A69" s="4" t="n">
+    <row r="69" ht="13.5" customHeight="1" s="9">
+      <c r="A69" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>Aurora Ali</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E69" s="4" t="n">
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="F69" s="4" t="n">
+      <c r="F69" s="5" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="8">
-      <c r="A70" s="4" t="n">
+    <row r="70" ht="13.5" customHeight="1" s="9">
+      <c r="A70" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>Penelope Guerrero</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E70" s="4" t="n">
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="F70" s="4" t="n">
+      <c r="F70" s="5" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="8">
-      <c r="A71" s="4" t="n">
+    <row r="71" ht="13.5" customHeight="1" s="9">
+      <c r="A71" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>Anna Mehta</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D71" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E71" s="4" t="n">
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="F71" s="4" t="n">
+      <c r="F71" s="5" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="8">
-      <c r="A72" s="4" t="n">
+    <row r="72" ht="13.5" customHeight="1" s="9">
+      <c r="A72" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>William Foster</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D72" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E72" s="4" t="n">
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="F72" s="4" t="n">
+      <c r="F72" s="5" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="8">
-      <c r="A73" s="4" t="n">
+    <row r="73" ht="13.5" customHeight="1" s="9">
+      <c r="A73" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>Jade Rojas</t>
         </is>
       </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D73" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E73" s="4" t="n">
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="F73" s="4" t="n">
+      <c r="F73" s="5" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="8">
-      <c r="A74" s="4" t="n">
+    <row r="74" ht="13.5" customHeight="1" s="9">
+      <c r="A74" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>Isla Espinoza</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D74" s="4" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E74" s="4" t="n">
+      <c r="E74" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="F74" s="4" t="n">
+      <c r="F74" s="5" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="8">
-      <c r="A75" s="4" t="n">
+    <row r="75" ht="13.5" customHeight="1" s="9">
+      <c r="A75" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>David Chu</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D75" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E75" s="4" t="n">
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="F75" s="4" t="n">
+      <c r="F75" s="5" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="8">
-      <c r="A76" s="4" t="n">
+    <row r="76" ht="13.5" customHeight="1" s="9">
+      <c r="A76" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>Thomas Padilla</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D76" s="4" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E76" s="4" t="n">
+      <c r="E76" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="F76" s="4" t="n">
+      <c r="F76" s="5" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="8">
-      <c r="A77" s="4" t="n">
+    <row r="77" ht="13.5" customHeight="1" s="9">
+      <c r="A77" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>Miles Salazar</t>
         </is>
       </c>
-      <c r="C77" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D77" s="4" t="inlineStr">
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E77" s="4" t="n">
+      <c r="E77" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="F77" s="4" t="n">
+      <c r="F77" s="5" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="8">
-      <c r="A78" s="4" t="n">
+    <row r="78" ht="13.5" customHeight="1" s="9">
+      <c r="A78" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>Mila Hong</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D78" s="4" t="inlineStr">
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E78" s="4" t="n">
+      <c r="E78" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="F78" s="4" t="n">
+      <c r="F78" s="5" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="8">
-      <c r="A79" s="4" t="n">
+    <row r="79" ht="13.5" customHeight="1" s="9">
+      <c r="A79" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>Benjamin Moua</t>
         </is>
       </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E79" s="4" t="n">
+      <c r="E79" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="F79" s="4" t="n">
+      <c r="F79" s="5" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="8">
-      <c r="A80" s="4" t="n">
+    <row r="80" ht="13.5" customHeight="1" s="9">
+      <c r="A80" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>Samuel Morales</t>
         </is>
       </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="n">
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="F80" s="4" t="n">
+      <c r="F80" s="5" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="8">
-      <c r="A81" s="4" t="n">
+    <row r="81" ht="13.5" customHeight="1" s="9">
+      <c r="A81" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>John Soto</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="n">
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="F81" s="4" t="n">
+      <c r="F81" s="5" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="8">
-      <c r="A82" s="4" t="n">
+    <row r="82" ht="13.5" customHeight="1" s="9">
+      <c r="A82" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>Joseph Martin</t>
         </is>
       </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="n">
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="F82" s="4" t="n">
+      <c r="F82" s="5" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="8">
-      <c r="A83" s="4" t="n">
+    <row r="83" ht="13.5" customHeight="1" s="9">
+      <c r="A83" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>Jose Ross</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="n">
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="F83" s="4" t="n">
+      <c r="F83" s="5" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="8">
-      <c r="A84" s="4" t="n">
+    <row r="84" ht="13.5" customHeight="1" s="9">
+      <c r="A84" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>Parker James</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="n">
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="F84" s="4" t="n">
+      <c r="F84" s="5" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="8">
-      <c r="A85" s="4" t="n">
+    <row r="85" ht="13.5" customHeight="1" s="9">
+      <c r="A85" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>Everleigh Fernandez</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E85" s="4" t="n">
+      <c r="E85" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="F85" s="5" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="8">
-      <c r="A86" s="4" t="n">
+    <row r="86" ht="13.5" customHeight="1" s="9">
+      <c r="A86" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="B86" s="5" t="inlineStr">
         <is>
           <t>Lincoln Hall</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="n">
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="F86" s="4" t="n">
+      <c r="F86" s="5" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="8">
-      <c r="A87" s="4" t="n">
+    <row r="87" ht="13.5" customHeight="1" s="9">
+      <c r="A87" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>Willow Mai</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E87" s="4" t="n">
+      <c r="E87" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="F87" s="4" t="n">
+      <c r="F87" s="5" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="8">
-      <c r="A88" s="4" t="n">
+    <row r="88" ht="13.5" customHeight="1" s="9">
+      <c r="A88" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="B88" s="5" t="inlineStr">
         <is>
           <t>Jack Cheng</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="E88" s="4" t="n">
+      <c r="E88" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="F88" s="4" t="n">
+      <c r="F88" s="5" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="8">
-      <c r="A89" s="4" t="n">
+    <row r="89" ht="13.5" customHeight="1" s="9">
+      <c r="A89" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>Genesis Navarro</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E89" s="4" t="n">
+      <c r="E89" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="F89" s="4" t="n">
+      <c r="F89" s="5" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="8">
-      <c r="A90" s="4" t="n">
+    <row r="90" ht="13.5" customHeight="1" s="9">
+      <c r="A90" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>Eliza Hernandez</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="E90" s="4" t="n">
+      <c r="E90" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="F90" s="4" t="n">
+      <c r="F90" s="5" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="8">
-      <c r="A91" s="4" t="n">
+    <row r="91" ht="13.5" customHeight="1" s="9">
+      <c r="A91" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>Gabriel Brooks</t>
         </is>
       </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="n">
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="F91" s="5" t="n">
         <v>95</v>
       </c>
     </row>
